--- a/biology/Médecine/Radiopaedia/Radiopaedia.xlsx
+++ b/biology/Médecine/Radiopaedia/Radiopaedia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Radiopaedia (ou radiopaedia.org) est un site web collaboratif à but non lucratif contenant des ressources éducatives en radiologie médicale avec des références, des articles, des images radiologiques et des dossiers de patients.
 Il contient aussi une encyclopédie radiologique. Il est actuellement un des plus grands sites éducatifs gratuits de radiologie dans le monde avec plus de 16000 cas de patients et plus de 7000 articles collaboratifs de radiologie de différentes qualités. Depuis 2012, il fait partie du UMB Medica Network.
@@ -512,7 +524,9 @@
           <t>Code</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site était construit initialement avec MediaWiki, le programme avec lequel est construit Wikipédia. Aujourd'hui, il fonctionne avec un autre programme écrit spécialement pour le site. En 2010, la presque totalité des articles et des images appartenant à Radswiki (un autre site éducatif de radiologie) ont été donnés à Radiopaedia.
 </t>
@@ -543,7 +557,9 @@
           <t>Objectifs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon ses fondateurs, le but de Radiopaedia est de « développer une base de données en ligne, contenant des textes et des cas de patients où l’information est mise à jour, pertinente et utile à la fois aux étudiants et aux radiologues diplômés. L’objectif est d’aider la communauté de radiologie, et de façon plus large, toute personne qui s’intéresse à la discipline; et cela grâce à des articles collaboratifs. »
 Le site a été créé en décembre 2005 par un  neuro-radiologiste australien ; le Dr Franck Gaillard. Au début, l’audience et les collaborateurs étaient plutôt australiens, mais très rapidement, les nationalités des contributeurs et les visiteurs se diversifient. 
@@ -579,7 +595,9 @@
           <t>Droits d'auteur</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La plus grande partie du contenu de Radiopaedia.org est sous licence Creative Commons.
 </t>
